--- a/přílohy/2023-11-30/Seznam-veřejných-rejstříků-k-otevření-stav-k-29-11-2023.xlsx
+++ b/přílohy/2023-11-30/Seznam-veřejných-rejstříků-k-otevření-stav-k-29-11-2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitalniagentura.sharepoint.com/sites/Evidenceasdlendat/Sdilene dokumenty/Otevřená data/Stav publikace OD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://digitalniagentura-my.sharepoint.com/personal/lenka_kovacova_dia_gov_cz/Documents/Plocha/Veřejné registry/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{370E4B6F-C754-4AB0-B989-92A4CE49EA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{584CC989-D9F3-465C-AA99-F5B25E3B13F3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{7D7F3B07-4237-44C9-8F09-620A59588FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F53DE85E-3A3B-4335-998E-4505C5B46D61}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="253">
   <si>
     <t>Data k otevření</t>
   </si>
@@ -654,9 +654,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zákon č. 372/2011 Sb, o zdravotních službách a podmínkách jejich poskytování (zákon o zdravotních službách), § 74, § 75 </t>
-  </si>
-  <si>
-    <t>https://rpp-ais.egon.gov.cz/gen/agendy-detail/; https://rpp-ais.egon.gov.cz/AISP/verejne/domu</t>
   </si>
   <si>
     <t>https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F00024341%2Faa4c99d9f1480cca59807389cf88d4dc</t>
@@ -804,6 +801,10 @@
 https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F66003008%2F701562799,https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F66003008%2F701562975
 https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F66003008%2F701562974
 https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F66003008%2F701560420</t>
+  </si>
+  <si>
+    <t>https://rpp-ais.egon.gov.cz/gen/agendy-detail/
+https://rpp-ais.egon.gov.cz/AISP/verejne/domu</t>
   </si>
 </sst>
 </file>
@@ -1205,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1302,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1336,7 +1337,7 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1392,7 +1393,7 @@
         <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -1409,7 +1410,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1426,7 +1427,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -1460,7 +1461,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>39</v>
@@ -1483,7 +1484,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1545,7 +1546,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -1624,7 +1625,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,7 +1778,7 @@
         <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>76</v>
@@ -1976,7 +1977,7 @@
         <v>123</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
@@ -2447,105 +2448,105 @@
       <c r="C74" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E74" t="s">
         <v>20</v>
       </c>
       <c r="F74" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>208</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>210</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="E75" t="s">
         <v>20</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
         <v>20</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>216</v>
+      </c>
+      <c r="B77" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B77" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E77" t="s">
         <v>20</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="E78" t="s">
         <v>20</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B79" t="s">
-        <v>209</v>
-      </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="E79" t="s">
         <v>10</v>
@@ -2553,16 +2554,16 @@
     </row>
     <row r="80" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B80" t="s">
-        <v>209</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -2570,53 +2571,50 @@
     </row>
     <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>228</v>
+      </c>
+      <c r="B81" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B81" t="s">
-        <v>209</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>231</v>
       </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>232</v>
-      </c>
       <c r="B82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E82" t="s">
         <v>20</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>233</v>
+      </c>
+      <c r="B83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B83" t="s">
-        <v>209</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
@@ -2624,13 +2622,13 @@
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>235</v>
+      </c>
+      <c r="B84" t="s">
         <v>236</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E84" t="s">
         <v>10</v>
@@ -2638,13 +2636,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E85" t="s">
         <v>10</v>
@@ -2689,28 +2687,27 @@
     <hyperlink ref="D71" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
     <hyperlink ref="D72" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
     <hyperlink ref="D73" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D74" r:id="rId38" display="https://rpp-ais.egon.gov.cz/gen/agendy-detail/" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="F74" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D75" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="F75" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D76" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F76" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D77" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="F77" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D79" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D80" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D81" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D82" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="F82" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D83" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="F25" r:id="rId52" display="https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F66003008%2F701563102,https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F66003008%2F701562799,https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F66003008%2F701562975," xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D29" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D34" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="F74" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F75" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="F76" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="F77" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D79" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D80" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D81" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="F82" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D83" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="F25" r:id="rId47" display="https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F66003008%2F701563102,https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F66003008%2F701562799,https://data.gov.cz/datov%C3%A1-sada?iri=https%3A%2F%2Fdata.gov.cz%2Fzdroj%2Fdatov%C3%A9-sady%2F66003008%2F701562975," xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D29" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D34" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D78" r:id="rId50" xr:uid="{2FC27CD0-C05A-45DC-B824-3BB05E1EFFAC}"/>
+    <hyperlink ref="D77" r:id="rId51" xr:uid="{3E71DB56-29E4-4CBD-AB52-07BBF84DE1CE}"/>
+    <hyperlink ref="D76" r:id="rId52" xr:uid="{9DEA3573-0728-47DB-A86C-7A77D2720DD6}"/>
+    <hyperlink ref="D75" r:id="rId53" display="https://rpp-ais.egon.gov.cz/gen/agendy-detail/" xr:uid="{6FD180CF-C566-43F6-8F2E-4FA1FDC16371}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
   <tableParts count="1">
-    <tablePart r:id="rId56"/>
+    <tablePart r:id="rId55"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2725,28 +2722,38 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010020DEE93CC4124F468B629FDD49B3A06E" ma:contentTypeVersion="13" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="4eccba12b809f3a56cdaacca266f6cba">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65742af2-0081-430f-a185-8920289ac160" xmlns:ns3="34c5978a-6285-4111-9aba-dd5c4d9e9cd5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="629dc7206c0cab8184370b0e8b176001" ns2:_="" ns3:_="">
-    <xsd:import namespace="65742af2-0081-430f-a185-8920289ac160"/>
-    <xsd:import namespace="34c5978a-6285-4111-9aba-dd5c4d9e9cd5"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="e4fdd0df-7464-4fa8-9041-afb668a41637" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101002E6DE533B0F441408554F24DF7E61B1F" ma:contentTypeVersion="14" ma:contentTypeDescription="Vytvoří nový dokument" ma:contentTypeScope="" ma:versionID="73f4d06a536104c0cae9463d8bb381b4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e4fdd0df-7464-4fa8-9041-afb668a41637" xmlns:ns4="8bc3ecbf-1681-40e9-a547-fbcc67ddfb79" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60fad702b659e51be3c9ac70b18b1f57" ns3:_="" ns4:_="">
+    <xsd:import namespace="e4fdd0df-7464-4fa8-9041-afb668a41637"/>
+    <xsd:import namespace="8bc3ecbf-1681-40e9-a547-fbcc67ddfb79"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
               <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2754,7 +2761,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="65742af2-0081-430f-a185-8920289ac160" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e4fdd0df-7464-4fa8-9041-afb668a41637" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -2767,38 +2774,41 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="10" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="11" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Značky obrázků" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d2a44d23-90f1-4afd-aa8c-0d6faad4ae95" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="14" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
@@ -2806,11 +2816,16 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="21" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="34c5978a-6285-4111-9aba-dd5c4d9e9cd5" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8bc3ecbf-1681-40e9-a547-fbcc67ddfb79" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Sdílí se s" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="16" nillable="true" ma:displayName="Sdílí se s" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -2829,23 +2844,17 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Sdílené s podrobnostmi" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="17" nillable="true" ma:displayName="Sdílené s podrobnostmi" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{1ff4a863-3d7b-458c-853d-64c27905ee86}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="34c5978a-6285-4111-9aba-dd5c4d9e9cd5">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
+    <xsd:element name="SharingHintHash" ma:index="18" nillable="true" ma:displayName="Hodnota hash upozornění na sdílení" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -2947,17 +2956,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65742af2-0081-430f-a185-8920289ac160">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="34c5978a-6285-4111-9aba-dd5c4d9e9cd5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E91A39E1-C65B-478D-A7EB-462F11128877}">
   <ds:schemaRefs>
@@ -2967,14 +2965,31 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA2F0383-1287-4232-814F-3E145161AEE4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294388AF-1E04-43FC-B5A5-1FE87243ECCC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="e4fdd0df-7464-4fa8-9041-afb668a41637"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8bc3ecbf-1681-40e9-a547-fbcc67ddfb79"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C77FD4B6-56AB-4DB5-BC91-8FF1095B6BCB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="65742af2-0081-430f-a185-8920289ac160"/>
-    <ds:schemaRef ds:uri="34c5978a-6285-4111-9aba-dd5c4d9e9cd5"/>
+    <ds:schemaRef ds:uri="e4fdd0df-7464-4fa8-9041-afb668a41637"/>
+    <ds:schemaRef ds:uri="8bc3ecbf-1681-40e9-a547-fbcc67ddfb79"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -2983,21 +2998,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{294388AF-1E04-43FC-B5A5-1FE87243ECCC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="65742af2-0081-430f-a185-8920289ac160"/>
-    <ds:schemaRef ds:uri="34c5978a-6285-4111-9aba-dd5c4d9e9cd5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>